--- a/FASE II - Ejecucion/6000 Pasivos y Patrimonio/6500 Partes relacionadas/6501 - Cuentas por pagar partes relacionadas.xlsx
+++ b/FASE II - Ejecucion/6000 Pasivos y Patrimonio/6500 Partes relacionadas/6501 - Cuentas por pagar partes relacionadas.xlsx
@@ -1089,11 +1089,11 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.72"/>
@@ -1458,11 +1458,11 @@
         <v>9000</v>
       </c>
       <c r="F14" s="30" t="n">
-        <v>0</v>
+        <v>21895</v>
       </c>
       <c r="G14" s="31" t="n">
         <f aca="false">D14-E14+F14</f>
-        <v>199016</v>
+        <v>220911</v>
       </c>
       <c r="H14" s="38" t="s">
         <v>32</v>
@@ -1475,7 +1475,7 @@
       </c>
       <c r="K14" s="33" t="n">
         <f aca="false">G14-J14</f>
-        <v>21000</v>
+        <v>42895</v>
       </c>
       <c r="AMG14" s="0"/>
       <c r="AMH14" s="0"/>
@@ -1568,11 +1568,11 @@
       </c>
       <c r="F17" s="53" t="n">
         <f aca="false">SUM(F9:F15)</f>
-        <v>0</v>
+        <v>21895</v>
       </c>
       <c r="G17" s="54" t="n">
         <f aca="false">SUM(G9:G15)</f>
-        <v>227258</v>
+        <v>249153</v>
       </c>
       <c r="H17" s="51"/>
       <c r="I17" s="51"/>
@@ -1582,7 +1582,7 @@
       </c>
       <c r="K17" s="55" t="n">
         <f aca="false">SUM(K9:K15)</f>
-        <v>12000</v>
+        <v>33895</v>
       </c>
       <c r="AMG17" s="0"/>
       <c r="AMH17" s="0"/>
@@ -1638,7 +1638,7 @@
       <c r="C23" s="68"/>
       <c r="D23" s="69" t="n">
         <f aca="false">SUM(G13:G15)</f>
-        <v>227258</v>
+        <v>249153</v>
       </c>
       <c r="E23" s="70" t="n">
         <f aca="false">SUM(J13:J15)</f>
@@ -1658,7 +1658,7 @@
       <c r="C25" s="61"/>
       <c r="D25" s="75" t="n">
         <f aca="false">+SUM(D22:D23)</f>
-        <v>227258</v>
+        <v>249153</v>
       </c>
       <c r="E25" s="76" t="n">
         <f aca="false">+SUM(E22:E23)</f>
